--- a/zssessentials/src/main/webapp/WEB-INF/books/customFormula.xlsx
+++ b/zssessentials/src/main/webapp/WEB-INF/books/customFormula.xlsx
@@ -4,36 +4,28 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="18195" windowHeight="6885"/>
+    <workbookView xWindow="120" yWindow="60" windowWidth="21075" windowHeight="9270"/>
   </bookViews>
   <sheets>
-    <sheet name="formula-custom" sheetId="13" r:id="rId1"/>
+    <sheet name="custom-formula" sheetId="1" r:id="rId1"/>
+    <sheet name="CHAIN" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
-  <si>
-    <t>formula result</t>
-  </si>
-  <si>
-    <t>formula and parameters</t>
-  </si>
-  <si>
-    <t>Custom</t>
-  </si>
-  <si>
-    <t>USD2NTD</t>
-  </si>
-  <si>
-    <t>USD2TWD</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
   <si>
     <t>MYSUBTOTAL</t>
   </si>
   <si>
+    <t>with blank cell</t>
+  </si>
+  <si>
+    <t>with boolean cell</t>
+  </si>
+  <si>
     <t>A</t>
   </si>
   <si>
@@ -46,26 +38,74 @@
     <t>D</t>
   </si>
   <si>
-    <t>CHAIN</t>
-  </si>
-  <si>
-    <t>ABCD</t>
-  </si>
-  <si>
-    <t>with boolean cell</t>
-  </si>
-  <si>
-    <t>with blank cell</t>
-  </si>
-  <si>
-    <t>ACD</t>
+    <t>with blank cells</t>
+  </si>
+  <si>
+    <t>EXCHANGE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> =CHAIN(D1:G1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> =CHAIN(D3,E3,F3,G3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> =CHAIN(D5:G5)</t>
+  </si>
+  <si>
+    <t>range</t>
+  </si>
+  <si>
+    <t>Formula Expression</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>Arguments</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> =CHAIN("A","B","C","D")</t>
+  </si>
+  <si>
+    <t>string argument</t>
+  </si>
+  <si>
+    <t>cell reference</t>
+  </si>
+  <si>
+    <t>Use Case</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> =EXCHANGE(D3,E3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> =MYSUBTOTAL(D9:G9)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> =MYSUBTOTAL(D11:G11)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> =MYSUBTOTAL(D13:G13)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> =MYEXCHANGE(D6, E6)</t>
+  </si>
+  <si>
+    <t>MYEXCHANGE</t>
+  </si>
+  <si>
+    <t>multiple cell references</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> =MYSUBTOTAL(D13, E13, F13, G13)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -83,8 +123,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -99,7 +161,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -107,92 +169,66 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -261,12 +297,6 @@
       <rgbColor rgb="00333399"/>
       <rgbColor rgb="00333333"/>
     </indexedColors>
-    <mruColors>
-      <color rgb="FF0000FF"/>
-      <color rgb="FF3333FF"/>
-      <color rgb="FF00FF00"/>
-      <color rgb="FFFF0000"/>
-    </mruColors>
   </colors>
 </styleSheet>
 </file>
@@ -556,255 +586,341 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" customWidth="1"/>
+    <col min="4" max="7" width="6.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.75">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:7" ht="15.75">
+      <c r="A1" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+    </row>
+    <row r="2" spans="1:7" ht="18.75">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+    </row>
+    <row r="3" spans="1:7" ht="15.75">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="2" t="e">
+        <f ca="1">EXCHANGE(D3,E3)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D3">
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <v>31.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="B4" s="11"/>
+    </row>
+    <row r="5" spans="1:7" ht="15.75">
+      <c r="A5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="2" t="e">
+        <f ca="1">MYEXCHANGE(D5, E5)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>31.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="B6" s="11"/>
+    </row>
+    <row r="7" spans="1:7" ht="15.75">
+      <c r="A7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="2" t="e">
+        <f ca="1">MYSUBTOTAL(D7:G7)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D7">
+        <v>1.5</v>
+      </c>
+      <c r="E7">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="F7">
+        <v>3</v>
+      </c>
+      <c r="G7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="B8" s="11"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B9" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="2" t="e">
+        <f ca="1">MYSUBTOTAL(D9:G9)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D9">
+        <v>1.5</v>
+      </c>
+      <c r="F9">
+        <v>3</v>
+      </c>
+      <c r="G9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="B10" s="11"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="2" t="e">
+        <f ca="1">MYSUBTOTAL(D11:G11)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D11">
+        <v>1.5</v>
+      </c>
+      <c r="E11" t="b">
+        <v>1</v>
+      </c>
+      <c r="F11" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="18.75">
-      <c r="A2" s="2"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-    </row>
-    <row r="3" spans="1:5" ht="15.75">
-      <c r="A3" s="1" t="s">
+      <c r="G11">
         <v>4</v>
       </c>
-      <c r="B3" t="e">
-        <f ca="1">USD2TWD(B4,C4)</f>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="2" t="e">
+        <f ca="1">MYSUBTOTAL(D13, E13, F13, G13)</f>
         <v>#NAME?</v>
       </c>
-      <c r="C3">
-        <v>300</v>
-      </c>
-      <c r="D3" t="e">
-        <f ca="1">IF(B3=C3,"T","WARN")</f>
+      <c r="D13">
+        <v>1.5</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>3</v>
+      </c>
+      <c r="G13">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15.75">
+      <c r="A1" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+    </row>
+    <row r="2" spans="1:7" ht="15.75">
+      <c r="A2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="5" t="e">
+        <f ca="1">CHAIN("A","B","C","D")</f>
         <v>#NAME?</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="B4">
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+    </row>
+    <row r="3" spans="1:7" ht="15.75">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+    </row>
+    <row r="4" spans="1:7" ht="15.75">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="5" t="e">
+        <f ca="1">CHAIN(D4:G4)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.75">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+    </row>
+    <row r="6" spans="1:7" ht="15.75">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="5" t="e">
+        <f ca="1">CHAIN(D6:G6)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.75">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+    </row>
+    <row r="8" spans="1:7" ht="15.75">
+      <c r="A8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C4">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15.75">
-      <c r="A6" s="1" t="s">
+      <c r="C8" s="5" t="e">
+        <f ca="1">CHAIN(D8,E8,F8,G8)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C6">
-        <v>150</v>
-      </c>
-      <c r="D6" t="str">
-        <f>IF(B6=C6,"T","WARN")</f>
-        <v>WARN</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="B7">
+      <c r="E8" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C7">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="15.75">
-      <c r="A9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" t="e">
-        <f ca="1">MYSUBTOTAL(B10:E10)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="C9">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>2</v>
-      </c>
-      <c r="D10">
-        <v>3</v>
-      </c>
-      <c r="E10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="B11" t="e">
-        <f ca="1">MYSUBTOTAL(B12:E12)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="C11">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <v>3</v>
-      </c>
-      <c r="E12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="B13" t="e">
-        <f ca="1">MYSUBTOTAL(B14:E14)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="C13">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14" t="b">
-        <v>1</v>
-      </c>
-      <c r="D14" t="b">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="15.75">
-      <c r="A16" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" t="e">
-        <f ca="1">CHAIN(B17:E17)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="C16" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5">
-      <c r="B17" t="s">
+      <c r="G8" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C17" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5">
-      <c r="B18" t="e">
-        <f ca="1">CHAIN(B19,C19,D19,E19)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="C18" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5">
-      <c r="B19" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5">
-      <c r="B20" t="e">
-        <f ca="1">CHAIN(B21:E21)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="C20" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5">
-      <c r="B21" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" t="s">
-        <v>9</v>
-      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D3">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
-      <formula>"WARN"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
-      <formula>"WARN"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>"WARN"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D6">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>"WARN"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D6">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>"WARN"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D6">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>"WARN"</formula>
-    </cfRule>
-  </conditionalFormatting>
+  <mergeCells count="1">
+    <mergeCell ref="D1:G1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>